--- a/SQL/Scheme for DB Data.xlsx
+++ b/SQL/Scheme for DB Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabby\Documents\CS467\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabby\Documents\GitHub\biblioFiles\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369E9F27-2FCA-4E39-A3D2-6A4B8714BAD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28FCEF-654F-471C-B1DA-034D983AF1A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12864" yWindow="1032" windowWidth="8580" windowHeight="12204" xr2:uid="{D9FE0C3D-B541-45F9-8C16-8D614459D16E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9FE0C3D-B541-45F9-8C16-8D614459D16E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16B1888-1ED9-4B9A-BC2A-7F4D513E9DE9}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>

--- a/SQL/Scheme for DB Data.xlsx
+++ b/SQL/Scheme for DB Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabby\Documents\GitHub\biblioFiles\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28FCEF-654F-471C-B1DA-034D983AF1A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00C80D-DF63-42FF-B85E-AD79EFE9369F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9FE0C3D-B541-45F9-8C16-8D614459D16E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="115">
   <si>
     <t>Friends List</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Book ID in DB</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Variable Description</t>
   </si>
   <si>
@@ -256,13 +253,136 @@
   </si>
   <si>
     <t>genre_id</t>
+  </si>
+  <si>
+    <t>BiblioFiles</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>Y - create friendship</t>
+  </si>
+  <si>
+    <t>Y - display friends</t>
+  </si>
+  <si>
+    <t>Y - delete friends</t>
+  </si>
+  <si>
+    <t>Y - create new user</t>
+  </si>
+  <si>
+    <t>Y - display account info</t>
+  </si>
+  <si>
+    <t>Y - update username or email</t>
+  </si>
+  <si>
+    <t>Y - delete account</t>
+  </si>
+  <si>
+    <t>Y - create a library</t>
+  </si>
+  <si>
+    <t>Y - display library details</t>
+  </si>
+  <si>
+    <t>Y - change library name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y - delete library </t>
+  </si>
+  <si>
+    <t>Y - create book record</t>
+  </si>
+  <si>
+    <t>Y - display book details</t>
+  </si>
+  <si>
+    <t>N - no edits to book info once added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N? </t>
+  </si>
+  <si>
+    <t>Y - add book to library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y - display details </t>
+  </si>
+  <si>
+    <t>Y - change bools, and notes</t>
+  </si>
+  <si>
+    <t>Y - delete book from library</t>
+  </si>
+  <si>
+    <t>Y - add new genre if doesn't exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>Y - create genre association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likely to require a join </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Views: </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Library Views</t>
+  </si>
+  <si>
+    <t>Shelf Views</t>
+  </si>
+  <si>
+    <t>Unpack views</t>
+  </si>
+  <si>
+    <t>Currently Reading views</t>
+  </si>
+  <si>
+    <t>Checkout views</t>
+  </si>
+  <si>
+    <t>Book detail view</t>
+  </si>
+  <si>
+    <t>Add book views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y - search features </t>
+  </si>
+  <si>
+    <t>Y - display genre association</t>
+  </si>
+  <si>
+    <t>Y -display genre details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +398,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +415,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,11 +443,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,505 +766,884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16B1888-1ED9-4B9A-BC2A-7F4D513E9DE9}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
       </c>
+      <c r="G44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
